--- a/Approximationen/COP Korrelation WP Gebäude.xlsx
+++ b/Approximationen/COP Korrelation WP Gebäude.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="12" documentId="11_522DB92437A2269CC6E95DCF8BA98BBEEBCBF02A" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{3C4A5CD9-9504-44C9-B660-34B0F70A1366}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="11_522DB92437A2269CC6E95DCF8BA98BBEEBCBF02A" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{35BCA907-40FF-4BC8-807F-C1FC9C93E111}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Diagramm1" sheetId="2" r:id="rId1"/>
@@ -789,7 +789,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -800,7 +800,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9303297" cy="6010603"/>
+    <xdr:ext cx="9301370" cy="6013174"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagramm 1">
@@ -1094,7 +1094,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
